--- a/data/old_posteriors/elementary_skills/simple_model/leak/unconstrained/results_model1b_leak_unconstrained.xlsx
+++ b/data/old_posteriors/elementary_skills/simple_model/leak/unconstrained/results_model1b_leak_unconstrained.xlsx
@@ -1702,9 +1702,7 @@
       <c r="AR3" t="n" s="87">
         <v>0.9996528226785366</v>
       </c>
-      <c r="AS3" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS3" s="87"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1830,9 +1828,7 @@
       <c r="AR4" t="n" s="87">
         <v>0.999999557324503</v>
       </c>
-      <c r="AS4" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS4" s="87"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1958,9 +1954,7 @@
       <c r="AR5" t="n" s="87">
         <v>0.9999999985612705</v>
       </c>
-      <c r="AS5" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS5" s="87"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2086,9 +2080,7 @@
       <c r="AR6" t="n" s="87">
         <v>0.9999999999514058</v>
       </c>
-      <c r="AS6" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS6" s="87"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2214,9 +2206,7 @@
       <c r="AR7" t="n" s="87">
         <v>0.9999999815977881</v>
       </c>
-      <c r="AS7" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS7" s="87"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2342,9 +2332,7 @@
       <c r="AR8" t="n" s="87">
         <v>0.9995953252005128</v>
       </c>
-      <c r="AS8" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS8" s="87"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2470,9 +2458,7 @@
       <c r="AR9" t="n" s="87">
         <v>0.9999999999984267</v>
       </c>
-      <c r="AS9" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS9" s="87"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2598,9 +2584,7 @@
       <c r="AR10" t="n" s="87">
         <v>0.9999999857154791</v>
       </c>
-      <c r="AS10" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS10" s="87"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2726,9 +2710,7 @@
       <c r="AR11" t="n" s="87">
         <v>0.9999998887966853</v>
       </c>
-      <c r="AS11" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS11" s="87"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2854,9 +2836,7 @@
       <c r="AR12" t="n" s="87">
         <v>0.9999999999984267</v>
       </c>
-      <c r="AS12" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS12" s="87"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2982,9 +2962,7 @@
       <c r="AR13" t="n" s="87">
         <v>0.9996719044516882</v>
       </c>
-      <c r="AS13" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS13" s="87"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3110,9 +3088,7 @@
       <c r="AR14" t="n" s="87">
         <v>0.35781230226619465</v>
       </c>
-      <c r="AS14" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS14" s="87"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3238,9 +3214,7 @@
       <c r="AR15" t="n" s="87">
         <v>0.9998874654168571</v>
       </c>
-      <c r="AS15" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS15" s="87"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3366,9 +3340,7 @@
       <c r="AR16" t="n" s="87">
         <v>0.9999759839958673</v>
       </c>
-      <c r="AS16" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS16" s="87"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3494,9 +3466,7 @@
       <c r="AR17" t="n" s="87">
         <v>0.9999999951509783</v>
       </c>
-      <c r="AS17" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS17" s="87"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3622,9 +3592,7 @@
       <c r="AR18" t="n" s="87">
         <v>0.9999999999994723</v>
       </c>
-      <c r="AS18" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS18" s="87"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3750,9 +3718,7 @@
       <c r="AR19" t="n" s="87">
         <v>0.9999999999514058</v>
       </c>
-      <c r="AS19" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS19" s="87"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3878,9 +3844,7 @@
       <c r="AR20" t="n" s="87">
         <v>0.9999999985612705</v>
       </c>
-      <c r="AS20" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS20" s="87"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4006,9 +3970,7 @@
       <c r="AR21" t="n" s="87">
         <v>0.9999999999999822</v>
       </c>
-      <c r="AS21" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS21" s="87"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4134,9 +4096,7 @@
       <c r="AR22" t="n" s="87">
         <v>0.9999999999515191</v>
       </c>
-      <c r="AS22" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS22" s="87"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4262,9 +4222,7 @@
       <c r="AR23" t="n" s="87">
         <v>0.9999999999837359</v>
       </c>
-      <c r="AS23" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS23" s="87"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4390,9 +4348,7 @@
       <c r="AR24" t="n" s="87">
         <v>0.9999999999515191</v>
       </c>
-      <c r="AS24" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS24" s="87"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4518,9 +4474,7 @@
       <c r="AR25" t="n" s="87">
         <v>0.999999993840941</v>
       </c>
-      <c r="AS25" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS25" s="87"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4646,9 +4600,7 @@
       <c r="AR26" t="n" s="87">
         <v>0.9832008724158632</v>
       </c>
-      <c r="AS26" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS26" s="87"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4774,9 +4726,7 @@
       <c r="AR27" t="n" s="87">
         <v>0.2545288446340753</v>
       </c>
-      <c r="AS27" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS27" s="87"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4902,9 +4852,7 @@
       <c r="AR28" t="n" s="87">
         <v>0.9999999430516381</v>
       </c>
-      <c r="AS28" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS28" s="87"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5030,9 +4978,7 @@
       <c r="AR29" t="n" s="87">
         <v>0.9998792999811549</v>
       </c>
-      <c r="AS29" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS29" s="87"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5158,9 +5104,7 @@
       <c r="AR30" t="n" s="87">
         <v>0.021986633632183755</v>
       </c>
-      <c r="AS30" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS30" s="87"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5286,9 +5230,7 @@
       <c r="AR31" t="n" s="87">
         <v>0.9999999999984232</v>
       </c>
-      <c r="AS31" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS31" s="87"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5414,9 +5356,7 @@
       <c r="AR32" t="n" s="87">
         <v>0.012106853905682299</v>
       </c>
-      <c r="AS32" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS32" s="87"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5542,9 +5482,7 @@
       <c r="AR33" t="n" s="87">
         <v>0.011822440523346788</v>
       </c>
-      <c r="AS33" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS33" s="87"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5670,9 +5608,7 @@
       <c r="AR34" t="n" s="87">
         <v>0.03263233568161282</v>
       </c>
-      <c r="AS34" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS34" s="87"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5798,9 +5734,7 @@
       <c r="AR35" t="n" s="87">
         <v>0.0020032753858457014</v>
       </c>
-      <c r="AS35" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS35" s="87"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5926,9 +5860,7 @@
       <c r="AR36" t="n" s="87">
         <v>0.007906270436859984</v>
       </c>
-      <c r="AS36" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS36" s="87"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6054,9 +5986,7 @@
       <c r="AR37" t="n" s="87">
         <v>0.03263233568161282</v>
       </c>
-      <c r="AS37" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS37" s="87"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6182,9 +6112,7 @@
       <c r="AR38" t="n" s="87">
         <v>0.9848203156813797</v>
       </c>
-      <c r="AS38" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS38" s="87"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6310,9 +6238,7 @@
       <c r="AR39" t="n" s="87">
         <v>0.030720561650902638</v>
       </c>
-      <c r="AS39" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS39" s="87"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6438,9 +6364,7 @@
       <c r="AR40" t="n" s="87">
         <v>0.02038624465565906</v>
       </c>
-      <c r="AS40" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS40" s="87"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6566,9 +6490,7 @@
       <c r="AR41" t="n" s="87">
         <v>0.9999999974911207</v>
       </c>
-      <c r="AS41" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS41" s="87"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6694,9 +6616,7 @@
       <c r="AR42" t="n" s="87">
         <v>0.0058428617526391806</v>
       </c>
-      <c r="AS42" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS42" s="87"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6822,9 +6742,7 @@
       <c r="AR43" t="n" s="87">
         <v>0.016646835552529566</v>
       </c>
-      <c r="AS43" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS43" s="87"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6950,9 +6868,7 @@
       <c r="AR44" t="n" s="87">
         <v>0.1181150655638636</v>
       </c>
-      <c r="AS44" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS44" s="87"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7078,9 +6994,7 @@
       <c r="AR45" t="n" s="87">
         <v>0.051539510115153814</v>
       </c>
-      <c r="AS45" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS45" s="87"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7206,9 +7120,7 @@
       <c r="AR46" t="n" s="87">
         <v>4.2972234572067914E-5</v>
       </c>
-      <c r="AS46" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS46" s="87"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7334,9 +7246,7 @@
       <c r="AR47" t="n" s="87">
         <v>0.01087690420097767</v>
       </c>
-      <c r="AS47" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS47" s="87"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7462,9 +7372,7 @@
       <c r="AR48" t="n" s="87">
         <v>0.007895732682401348</v>
       </c>
-      <c r="AS48" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS48" s="87"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7590,9 +7498,7 @@
       <c r="AR49" t="n" s="87">
         <v>0.00307713187694713</v>
       </c>
-      <c r="AS49" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS49" s="87"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7718,9 +7624,7 @@
       <c r="AR50" t="n" s="87">
         <v>0.001029465193778718</v>
       </c>
-      <c r="AS50" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS50" s="87"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7846,9 +7750,7 @@
       <c r="AR51" t="n" s="87">
         <v>0.0023719765620455616</v>
       </c>
-      <c r="AS51" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS51" s="87"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7974,9 +7876,7 @@
       <c r="AR52" t="n" s="87">
         <v>0.007906270436859982</v>
       </c>
-      <c r="AS52" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS52" s="87"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8102,9 +8002,7 @@
       <c r="AR53" t="n" s="87">
         <v>0.9998468219361181</v>
       </c>
-      <c r="AS53" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS53" s="87"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8230,9 +8128,7 @@
       <c r="AR54" t="n" s="87">
         <v>0.9999981021274678</v>
       </c>
-      <c r="AS54" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS54" s="87"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8358,9 +8254,7 @@
       <c r="AR55" t="n" s="87">
         <v>0.8619128130207049</v>
       </c>
-      <c r="AS55" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS55" s="87"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8486,9 +8380,7 @@
       <c r="AR56" t="n" s="87">
         <v>0.9999999999514058</v>
       </c>
-      <c r="AS56" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS56" s="87"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8614,9 +8506,7 @@
       <c r="AR57" t="n" s="87">
         <v>0.834419263542215</v>
       </c>
-      <c r="AS57" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS57" s="87"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8742,9 +8632,7 @@
       <c r="AR58" t="n" s="87">
         <v>0.9995953252005128</v>
       </c>
-      <c r="AS58" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS58" s="87"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8870,9 +8758,7 @@
       <c r="AR59" t="n" s="87">
         <v>0.9956794598595213</v>
       </c>
-      <c r="AS59" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS59" s="87"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8998,9 +8884,7 @@
       <c r="AR60" t="n" s="87">
         <v>0.9999986260027234</v>
       </c>
-      <c r="AS60" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS60" s="87"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9126,9 +9010,7 @@
       <c r="AR61" t="n" s="87">
         <v>0.9993558025109746</v>
       </c>
-      <c r="AS61" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS61" s="87"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9254,9 +9136,7 @@
       <c r="AR62" t="n" s="87">
         <v>0.9998950477637992</v>
       </c>
-      <c r="AS62" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS62" s="87"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9382,9 +9262,7 @@
       <c r="AR63" t="n" s="87">
         <v>0.9999793094511449</v>
       </c>
-      <c r="AS63" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS63" s="87"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9510,9 +9388,7 @@
       <c r="AR64" t="n" s="87">
         <v>0.9999995760892393</v>
       </c>
-      <c r="AS64" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS64" s="87"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9638,9 +9514,7 @@
       <c r="AR65" t="n" s="87">
         <v>0.9999959769382071</v>
       </c>
-      <c r="AS65" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS65" s="87"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9766,9 +9640,7 @@
       <c r="AR66" t="n" s="87">
         <v>0.01025724427626095</v>
       </c>
-      <c r="AS66" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS66" s="87"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9894,9 +9766,7 @@
       <c r="AR67" t="n" s="87">
         <v>0.8607993771141927</v>
       </c>
-      <c r="AS67" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS67" s="87"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -10022,9 +9892,7 @@
       <c r="AR68" t="n" s="87">
         <v>0.9995281470559497</v>
       </c>
-      <c r="AS68" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS68" s="87"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10150,9 +10018,7 @@
       <c r="AR69" t="n" s="87">
         <v>0.020235860005388906</v>
       </c>
-      <c r="AS69" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS69" s="87"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10278,9 +10144,7 @@
       <c r="AR70" t="n" s="87">
         <v>0.7104641500039777</v>
       </c>
-      <c r="AS70" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS70" s="87"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10406,9 +10270,7 @@
       <c r="AR71" t="n" s="87">
         <v>0.3101200852683831</v>
       </c>
-      <c r="AS71" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS71" s="87"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -10534,9 +10396,7 @@
       <c r="AR72" t="n" s="87">
         <v>0.9423045345643598</v>
       </c>
-      <c r="AS72" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS72" s="87"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10662,9 +10522,7 @@
       <c r="AR73" t="n" s="87">
         <v>0.0036011734988613034</v>
       </c>
-      <c r="AS73" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS73" s="87"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10790,9 +10648,7 @@
       <c r="AR74" t="n" s="87">
         <v>0.9999863583445242</v>
       </c>
-      <c r="AS74" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS74" s="87"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10918,9 +10774,7 @@
       <c r="AR75" t="n" s="87">
         <v>0.999906803452384</v>
       </c>
-      <c r="AS75" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS75" s="87"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -11046,9 +10900,7 @@
       <c r="AR76" t="n" s="87">
         <v>0.8056700955449754</v>
       </c>
-      <c r="AS76" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS76" s="87"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11174,9 +11026,7 @@
       <c r="AR77" t="n" s="87">
         <v>0.0015773045082424083</v>
       </c>
-      <c r="AS77" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS77" s="87"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11302,9 +11152,7 @@
       <c r="AR78" t="n" s="87">
         <v>0.6586902001930965</v>
       </c>
-      <c r="AS78" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS78" s="87"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11430,9 +11278,7 @@
       <c r="AR79" t="n" s="87">
         <v>0.898151761476186</v>
       </c>
-      <c r="AS79" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS79" s="87"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -11558,9 +11404,7 @@
       <c r="AR80" t="n" s="87">
         <v>0.04598258153893056</v>
       </c>
-      <c r="AS80" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS80" s="87"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11686,9 +11530,7 @@
       <c r="AR81" t="n" s="87">
         <v>0.9847072382740412</v>
       </c>
-      <c r="AS81" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS81" s="87"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -11814,9 +11656,7 @@
       <c r="AR82" t="n" s="87">
         <v>0.0329279441627265</v>
       </c>
-      <c r="AS82" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS82" s="87"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11942,9 +11782,7 @@
       <c r="AR83" t="n" s="87">
         <v>0.007906270436859984</v>
       </c>
-      <c r="AS83" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS83" s="87"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12070,9 +11908,7 @@
       <c r="AR84" t="n" s="87">
         <v>0.9999962382023152</v>
       </c>
-      <c r="AS84" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS84" s="87"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12198,9 +12034,7 @@
       <c r="AR85" t="n" s="87">
         <v>0.999999557324503</v>
       </c>
-      <c r="AS85" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS85" s="87"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12326,9 +12160,7 @@
       <c r="AR86" t="n" s="87">
         <v>0.9916528598216487</v>
       </c>
-      <c r="AS86" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS86" s="87"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12454,9 +12286,7 @@
       <c r="AR87" t="n" s="87">
         <v>0.9999066513530905</v>
       </c>
-      <c r="AS87" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS87" s="87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12582,9 +12412,7 @@
       <c r="AR88" t="n" s="87">
         <v>0.7648676565462234</v>
       </c>
-      <c r="AS88" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS88" s="87"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12710,9 +12538,7 @@
       <c r="AR89" t="n" s="87">
         <v>0.9971790651273399</v>
       </c>
-      <c r="AS89" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS89" s="87"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12838,9 +12664,7 @@
       <c r="AR90" t="n" s="87">
         <v>0.9989569533249323</v>
       </c>
-      <c r="AS90" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS90" s="87"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -12966,9 +12790,7 @@
       <c r="AR91" t="n" s="87">
         <v>0.01260983464484956</v>
       </c>
-      <c r="AS91" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS91" s="87"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -13094,9 +12916,7 @@
       <c r="AR92" t="n" s="87">
         <v>0.9998512267848805</v>
       </c>
-      <c r="AS92" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS92" s="87"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13222,9 +13042,7 @@
       <c r="AR93" t="n" s="87">
         <v>0.18655290919835082</v>
       </c>
-      <c r="AS93" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS93" s="87"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13350,9 +13168,7 @@
       <c r="AR94" t="n" s="87">
         <v>0.9999863583445242</v>
       </c>
-      <c r="AS94" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS94" s="87"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -13478,9 +13294,7 @@
       <c r="AR95" t="n" s="87">
         <v>0.3498875730215143</v>
       </c>
-      <c r="AS95" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS95" s="87"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -13606,9 +13420,7 @@
       <c r="AR96" t="n" s="87">
         <v>0.999986971904536</v>
       </c>
-      <c r="AS96" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS96" s="87"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13734,9 +13546,7 @@
       <c r="AR97" t="n" s="87">
         <v>0.9998735845580148</v>
       </c>
-      <c r="AS97" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS97" s="87"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13862,9 +13672,7 @@
       <c r="AR98" t="n" s="87">
         <v>0.6984647085551053</v>
       </c>
-      <c r="AS98" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS98" s="87"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -13990,9 +13798,7 @@
       <c r="AR99" t="n" s="87">
         <v>0.999942194479043</v>
       </c>
-      <c r="AS99" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS99" s="87"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14118,9 +13924,7 @@
       <c r="AR100" t="n" s="87">
         <v>0.03300307590774731</v>
       </c>
-      <c r="AS100" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS100" s="87"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -14246,9 +14050,7 @@
       <c r="AR101" t="n" s="87">
         <v>0.9993558025109746</v>
       </c>
-      <c r="AS101" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS101" s="87"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -14374,9 +14176,7 @@
       <c r="AR102" t="n" s="87">
         <v>0.11926481035935663</v>
       </c>
-      <c r="AS102" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS102" s="87"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14502,9 +14302,7 @@
       <c r="AR103" t="n" s="87">
         <v>0.012720292760866829</v>
       </c>
-      <c r="AS103" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS103" s="87"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14630,9 +14428,7 @@
       <c r="AR104" t="n" s="87">
         <v>0.0329279441627265</v>
       </c>
-      <c r="AS104" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS104" s="87"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -14758,9 +14554,7 @@
       <c r="AR105" t="n" s="87">
         <v>0.27646314939640554</v>
       </c>
-      <c r="AS105" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS105" s="87"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -14886,9 +14680,7 @@
       <c r="AR106" t="n" s="87">
         <v>0.030720561650902638</v>
       </c>
-      <c r="AS106" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS106" s="87"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -15014,9 +14806,7 @@
       <c r="AR107" t="n" s="87">
         <v>0.33328473372461065</v>
       </c>
-      <c r="AS107" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS107" s="87"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15142,9 +14932,7 @@
       <c r="AR108" t="n" s="87">
         <v>0.9999999556629845</v>
       </c>
-      <c r="AS108" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS108" s="87"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15270,9 +15058,7 @@
       <c r="AR109" t="n" s="87">
         <v>0.0024005661831461643</v>
       </c>
-      <c r="AS109" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS109" s="87"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15398,9 +15184,7 @@
       <c r="AR110" t="n" s="87">
         <v>0.44596460396317994</v>
       </c>
-      <c r="AS110" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS110" s="87"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15526,9 +15310,7 @@
       <c r="AR111" t="n" s="87">
         <v>0.007906270436859984</v>
       </c>
-      <c r="AS111" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS111" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
